--- a/bases/planilha Base  OR.xlsx
+++ b/bases/planilha Base  OR.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -260,6 +266,9 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -275,20 +284,23 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,15 +610,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="82.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="82.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="26.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,19 +642,19 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
-        <v>649739</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>648982</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -650,19 +662,19 @@
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>648986</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -670,19 +682,19 @@
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
-        <v>648982</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8">
+        <v>649739</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -690,19 +702,19 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>648751</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -710,27 +722,27 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>646259</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>37074</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>

--- a/bases/planilha Base  OR.xlsx
+++ b/bases/planilha Base  OR.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +122,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -266,7 +260,7 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -284,7 +278,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
